--- a/Rapport/P4_Younous_Mohamed/P4_01_analyse/Rapport d'analyse.xlsx
+++ b/Rapport/P4_Younous_Mohamed/P4_01_analyse/Rapport d'analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\P4\Rapport\P4_Younous_Mohamed\P4_01_analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFAB02D-97AF-409F-9308-3DD3728AA561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60351103-AD1E-4982-80BA-1C29C3F14CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,10 +501,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.6328125" defaultRowHeight="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1055,22 +1055,22 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
